--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5209">
   <si>
     <t>translation_group</t>
   </si>
@@ -15598,12 +15598,6 @@
   </si>
   <si>
     <t xml:space="preserve"> התראות</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15990,17 +15984,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54647,18 +54641,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5193</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5194</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54668,10 +54654,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="D2763" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54682,10 +54668,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
       <c r="D2764" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54696,10 +54682,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
       <c r="D2765" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54710,10 +54696,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
       <c r="D2766" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54724,10 +54710,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="D2767" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54738,10 +54724,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="D2768" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54752,10 +54738,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="D2769" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54794,11 +54780,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="D2772" t="s">
-        <v>5210</v>
-      </c>
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5900">
   <si>
     <t>translation_group</t>
   </si>
@@ -10223,7 +10223,7 @@
     <t>הגדרות Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>מלא את השדות לקבלת תוצאות מקסימליות בעת מציאת האתר שלך במנועי חיפוש.</t>
@@ -17131,6 +17131,604 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>ברוך הבא למיקרוביבר</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>השתמש ב- Microweber לבניית אתר, חנות מקוונת או בלוג.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>יצירה ועריכה של תוכן, מכירה מקוונת, ניהול הזמנות ולקוחות.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>לְהַסִיר</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>עגלה נטושה</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>אתה משתמש בתבנית זו.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>השינוי ישפיע רק על הדף הנוכחי.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>אפשר מספר תבניות</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>אם תאפשר מספר תבניות, תוכל להשתמש בתבניות שונות בעת יצירת דפים חדשים.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>הגדרות אתר דואר אלקטרוני למערכת</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>העבירו הודעות הקשורות לרישום חדש, איפוס סיסמאות ופונקציות מערכת אחרות.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>מכתובת המייל</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>לְשֶׁעָבַר. שם האתר שלך</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>הגדרות ספק דואר אלקטרוני כלליות</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>הגדר את ספק הדוא"ל שלך.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>ספק הדואר האלקטרוני הכללי יעביר את כל ההודעות הקשורות לאתר. כולל הודעות מערכת והודעות טופס יצירת קשר.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>לוגו אתר</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>בחר לוגו לאתר שלך.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>העלאת לוגו</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>אתר Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>משנה שפת ברירת מחדל ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>נקה מטמון..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>התקן מודול רב לשוני</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>משתמשים יכולים להירשם בדוא"ל זמני כמו - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>משתמשים הרשומים יכולים לקבל ממך אוטומטית דוא"ל אוטומטי. ראה את ההגדרות ופרסם את ההודעות שלך.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>שלח דוא"ל על רישום משתמשים חדש למשתמשי מנהל</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>האם אתה רוצה שמנהלי מערכת יקבלו דואר אלקטרוני כאשר משתמש חדש רשום?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber הוא קוד פתוח גרור ושחרר בונה אתרים ו- CMS בחינם. זה ברישיון MIT ואנחנו משתמשים במסגרת Laravel PHP</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>משלוח לכתובת</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>איסוף מהכתובת</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>שילובי דואר אלקטרוני</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>אין לך הגדרת דואר אלקטרוני ומערכת smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>הגדר את הגדרות המערכת שלך כאן.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>הגדרות טופס יצירת קשר גלובלי</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>אפשרויות שליחת דואר אלקטרוני</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>שולח גלובלי</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>השתמש בהגדרות השולח המותאמות אישית</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>השתמש בהגדרות שולח מותאמות אישית עבור טופסי יצירת הקשר הגלובליים.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>כברירת מחדל נשתמש בהגדרות הדואר האלקטרוני של מערכת האתר.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>תוכל לשנות את הגדרות הדואר האלקטרוני של המערכת כאן.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>מקלטים גלובליים</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>שלח נתוני טפסים ליצירת קשר למקבלי הגלובלית בעת הגשתם</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>לכתובות דואר אלקטרוני</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>כתובת הדואר האלקטרוני של המקלטים מופרדת עם תרדמת.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>צור קשר עם ספק האירוח שלך כדי לאפשר סיומת PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>אלמנטים</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>לפני 2 חודשים</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>הסר את ה- favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>המותאם אישית</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>מוצרים V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>ציר זמן</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>תווית לבנה WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>מספר ההמלצות הגלויות</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>תבנית המודול השתנתה</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>גרסאות תוכן</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>פריסות ואלמנטים ברירת מחדל</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>רשימת החצים</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>רשימה מסומנת</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>טקסט רקע</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>כותרת עם טקסט</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>אייקון עם טקסט</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>שתי עמודות טקסט</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>שתי עמודות טקסט עם סמל וכותרת</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>תמונה עם כותרת וטקסט</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>טקסט עם תמונה וכותרת</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>אפשר הערות</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>הגדרות Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הגדר את העדפות ה- captcha שלך מ- </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>הוסף / ערוך שדות בטופס באמצעות השדות המותאמים אישית</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>הגדרות טופס יצירת קשר נוכחיות</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>שם טופס יצירת קשר</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>מה שמו של טופס יצירת הקשר הזה?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>מקלטים</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>שלח נתוני טופס יצירת קשר למקלטי מותאמים אישית כאשר הם מוגשים</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>השתמש בהגדרות מקלטים מותאמות אישית עבור טופס יצירת הקשר הנוכחי.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>כברירת מחדל נשתמש בהגדרות גלובליות של טופס יצירת קשר.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>תוכלו לשנות את הגדרות הגלובליות של טופס יצירת הקשר כאן.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>הודעת תגובה אוטומטית למשתמש</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>אפשר הודעת תגובה אוטומטית למשתמש</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>אפשר למשתמשים לקבל "הודעות דוא"ל לאחר המנוי."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>מגיב אוטומטית שולח מותאם אישית</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>השתמש בהגדרות השולח המותאמות אישית עבור טופס יצירת הקשר הנוכחי.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>תגובה אוטומטית מכתובת דואר אלקטרוני</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>תגובה אוטומטית מהשם</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>תשובה אוטומטית לתשובה לדואר אלקטרוני</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>כאשר המשתמש מקבל את הודעת התגובה האוטומטית הוא יכול להשיב לתשובה לדוא"ל.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>מגיב אוטומטית קבצים מצורפים לדואר אלקטרוני</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>אם ברצונך לצרף תמונות, עליך להעלות אותן לגלריה מ'הוסף מדיה '</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>עדיין אין לך הודעות</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>צור את ההודעה הראשונה שלך ברגע זה.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>צור פוסט</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>כיצד לכתוב תיאורי מוצרים שמוכרים
+                                                    אחד הדברים הטובים ביותר שאתה יכול לעשות כדי להצליח בחנות שלך הוא להשקיע קצת זמן בכתיבת תיאורי מוצרים נהדרים. אתה רוצה לספק מידע מפורט אך תמציתי שימשוך לקוחות פוטנציאליים לקנות.
+                                                    תחשוב כמו צרכן
+                                                    חשוב על מה שאתה כצרכן תרצה לדעת ואז כלול את התכונות הללו בתיאור שלך. לבגדים: חומרים והתאמה. לאוכל: מרכיבים ואופן הכנתו. תבליטים הם החברים שלך כאשר אתה מפרט
+                                                   תכונות - נסה
+                                                            להגביל כל אחת ל 5-8 מילים.</t>
   </si>
 </sst>
 </file>
@@ -17469,7 +18067,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67777,6 +68375,1757 @@
         <v>3648</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5711</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5713</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5717</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>3417</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5897</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6193">
   <si>
     <t>translation_group</t>
   </si>
@@ -17729,6 +17729,885 @@
                                                     חשוב על מה שאתה כצרכן תרצה לדעת ואז כלול את התכונות הללו בתיאור שלך. לבגדים: חומרים והתאמה. לאוכל: מרכיבים ואופן הכנתו. תבליטים הם החברים שלך כאשר אתה מפרט
                                                    תכונות - נסה
                                                             להגביל כל אחת ל 5-8 מילים.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>שפת ניהול</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>לְהַגבִּיל</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>עורך קוד</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>בלוג</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>כותרות</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>כותרות 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>כותרות 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>כותרות 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>כותרות 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>כותרות 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>כותרות 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>כותרות 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>כותרות 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>בלוק טקסט</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>בלוק טקסט 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>תכונות 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>תכונות 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>תכונות 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>תכונות 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>רשתות</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>תפריט - עור-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>תפריט - עור-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>תפריט - עור-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>תפריט - עור-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>תפריט - עור-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>כותרות תחתונות</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>כותרות תחתונות 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>כותרות תחתונות 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>כותרות תחתונות 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>כותרות תחתונות 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>ג'מבוטרון</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>ג'מבוטרון 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>תמחור 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>פריסות ברירת מחדל</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>אין כאן תוכן</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>שדות מותאמים אישית נשמרים</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>שדות קיימים</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>בחר מהשדות הקיימים שלך למטה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הוסף שדות חדשים</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>הוסף שדה מותאם אישית חדש מהרשימה למטה</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>השדות שלך</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>רשימה של השדות המותאמים אישית שהוספת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לחזור אנכית </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>משפחת גופן</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>מצב מיזוג</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>מְכוֹלָה</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>סוג מיכל</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>אנימציות</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>טעינה מחדש של סגנונות</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>קישורים ל</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>חבילת תצוגה מקדימה</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>הַדגָמָה</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>להשתמש</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>נוֹכְחִי</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>להזמין מחדש</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>מערכת</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>הפניית דפדפן</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>שילוב</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>עדכון עצמאי</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>אתה צריך מפתח רישיון כדי להתקין חבילה זו</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>חבילה זו היא פרימיום ואתה חייב להיות בעל מפתח רישיון כדי להתקין אותה</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>אתה צריך מפתח רישיון</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>הרישיון הופעל</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>טוען מחדש את הדף</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>הרישיון לא הופעל</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>עדכוני מערכת</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>בדוק אם קיימים עדכוני מערכת</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>בחזרה לרשימה</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>לקטגוריה חייב להיות שם</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>האם הקטגוריה מוסתרת?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>אם תגדיר זאת ל-YES קטגוריה זו תוסתרה מהאתר</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>הַזכָּרָה</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>העגלה שלך ריקה.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>נמצאו תוצאות</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>אם תבחר באחוזים בשדה הבחירה, הוא יחושב אוטומטית מהמחיר וההצעה של המוצר.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>custom.multillanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>התקדם לנקודת הביקורת</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>מציג</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>שֶׁל</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>תוצאות)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>כותרת העמוד - פירור לחם מימין</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>כותרת העמוד - פירור לחם שמאלי</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>תנאי שימוש</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>משלוח והחזרות</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>בערך 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>בערך 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>בערך 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>בית 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>בית 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>עליך ללחוץ על לחצן החל תבנית כדי לשנות את התבנית שלך</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>חפש לפי קריטריונים</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>תאריך מ</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>הגדר את ההזמנות מהתאריך</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>תאריך ל</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>הגדר את ההזמנות עד היום</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>סכום הזמנה מ</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>הצג את ההזמנה עם כמות מינימלית</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>סכום הזמנה עד</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>הצג את ההזמנה עם כמות מקסימלית</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>חפש לפי מוצרים...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>חפש לפי מוצרים</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>מצב תשלום</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>חיפוש חינם בטלפון, שם, מייל וכו'...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>שלח קריטריון זה</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>אפס מסנן</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>ייצא הכל</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>בחר מיון</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>תאריך הזמנה</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[חדש &gt; ישן]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[ישן &gt; חדש]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[גבוה &gt; נמוך]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[נמוך &gt; גבוה]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>הזמנה הושלמה</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>תרגומים מהמודול הרב-שפות נמצאו במסד הנתונים שלך.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>אַזהָרָה! שינוי שפת ברירת המחדל יכול לשבור את התרגומים באתר שלך.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>האם אתה בטוח רוצה להמשיך?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>אַזהָרָה! שפת ברירת המחדל המשתנה אולי תשבור את האתר שלך.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>ההזמנה עדיין לא הושלמה</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>עודכן ב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מבט חטוף </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>החלף ערכי שפה</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>תרגומים מיובאים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא נמצאו תרגומים במסד הנתונים. האם ברצונך לייבא תרגומים? </t>
   </si>
 </sst>
 </file>
@@ -17752,10 +18631,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17766,7 +18642,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18067,7 +18943,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70129,8 +71005,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5933</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>3929</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6076</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5897</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6086</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6086</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6182</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70142,5 +73652,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/he_IL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6013">
   <si>
     <t>translation_group</t>
   </si>
@@ -17136,19 +17136,19 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>ברוך הבא למיקרוביבר</t>
+    <t>ברוכים הבאים ל-Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>השתמש ב- Microweber לבניית אתר, חנות מקוונת או בלוג.</t>
+    <t>השתמש ב-Microweber כדי לבנות את האתר, החנות המקוונת או הבלוג שלך.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>יצירה ועריכה של תוכן, מכירה מקוונת, ניהול הזמנות ולקוחות.</t>
+    <t>צור וערוך תוכן, מכיר באינטרנט, נהל הזמנות ולקוחות.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -17184,19 +17184,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>אם תאפשר מספר תבניות, תוכל להשתמש בתבניות שונות בעת יצירת דפים חדשים.</t>
+    <t>אם תאפשר מספר תבניות, תוכל להשתמש בתבניות שונות בעת יצירת עמוד חדש.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>הגדרות אתר דואר אלקטרוני למערכת</t>
+    <t>הגדרות מערכת דואר אלקטרוני של אתר</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>העבירו הודעות הקשורות לרישום חדש, איפוס סיסמאות ופונקציות מערכת אחרות.</t>
+    <t>שלח הודעות הקשורות לרישום חדש, איפוסי סיסמאות ופונקציונליות מערכת אחרת.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17214,7 +17214,7 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>הגדרות ספק דואר אלקטרוני כלליות</t>
+    <t>הגדרות כלליות של ספק הדואר האלקטרוני</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
@@ -17232,7 +17232,7 @@
     <t>Website Logo</t>
   </si>
   <si>
-    <t>לוגו אתר</t>
+    <t>לוגו האתר</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17244,7 +17244,7 @@
     <t>Upload logo</t>
   </si>
   <si>
-    <t>העלאת לוגו</t>
+    <t>העלה לוגו</t>
   </si>
   <si>
     <t>Website Favicon</t>
@@ -17256,7 +17256,7 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>משנה שפת ברירת מחדל ..</t>
+    <t>משנה שפת ברירת מחדל..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17268,37 +17268,37 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>התקן מודול רב לשוני</t>
+    <t>התקן מודול רב-לשוני</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>משתמשים יכולים להירשם בדוא"ל זמני כמו - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>משתמשים יכולים להירשם עם מיילים זמניים כמו - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>משתמשים הרשומים יכולים לקבל ממך אוטומטית דוא"ל אוטומטי. ראה את ההגדרות ופרסם את ההודעות שלך.</t>
+    <t>משתמשים רשומים יכולים לקבל ממך דוא"ל אוטומטי באופן אוטומטי. ראה את ההגדרות ופרסם את ההודעות שלך.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>שלח דוא"ל על רישום משתמשים חדש למשתמשי מנהל</t>
+    <t>שלח דוא"ל על רישום משתמש חדש למשתמשי מנהל</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>האם אתה רוצה שמנהלי מערכת יקבלו דואר אלקטרוני כאשר משתמש חדש רשום?</t>
+    <t>האם אתה רוצה שמנהלים יקבלו דואר אלקטרוני כאשר משתמש חדש נרשם?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber הוא קוד פתוח גרור ושחרר בונה אתרים ו- CMS בחינם. זה ברישיון MIT ואנחנו משתמשים במסגרת Laravel PHP</t>
+    <t>Microweber הוא בונה אתרים ו-CMS חינמיים בקוד פתוח לגרירה ושחרור. זה תחת רישיון MIT ואנחנו משתמשים במסגרת Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17328,7 +17328,7 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>אין לך הגדרת דואר אלקטרוני ומערכת smtp.</t>
+    <t>אין לך הגדרת דואר אלקטרוני ו-SMTP של המערכת.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -17358,13 +17358,13 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>השתמש בהגדרות השולח המותאמות אישית</t>
+    <t>השתמש בהגדרות שולח מותאמות אישית</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>השתמש בהגדרות שולח מותאמות אישית עבור טופסי יצירת הקשר הגלובליים.</t>
+    <t>השתמש בהגדרות שולח מותאמות אישית עבור טפסי יצירת קשר גלובליים.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
@@ -17376,7 +17376,7 @@
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>תוכל לשנות את הגדרות הדואר האלקטרוני של המערכת כאן.</t>
+    <t>אתה יכול לשנות את הגדרות הדואר האלקטרוני של המערכת כאן.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17388,7 +17388,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>שלח נתוני טפסים ליצירת קשר למקבלי הגלובלית בעת הגשתם</t>
+    <t>שלח נתוני טפסי יצירת קשר למקלטים גלובליים בעת הגשתם</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17400,13 +17400,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>כתובת הדואר האלקטרוני של המקלטים מופרדת עם תרדמת.</t>
+    <t>כתובת הדואר האלקטרוני של המקלטים מופרדים עם תרדמת.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>צור קשר עם ספק האירוח שלך כדי לאפשר סיומת PHP SOAP.</t>
+    <t>צור קשר עם ספק האירוח שלך כדי להפעיל את הרחבת SOAP של PHP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17427,7 +17427,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>הסר את ה- favicon</t>
+    <t>הסר favicon</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17445,7 +17445,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>מוצרים V2</t>
+    <t>מוצריםV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17463,13 +17463,13 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>מספר ההמלצות הגלויות</t>
+    <t>מספר העדויות הגלויות</t>
   </si>
   <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>תבנית המודול השתנתה</t>
+    <t>תבנית מודול השתנתה</t>
   </si>
   <si>
     <t>Content versions</t>
@@ -17559,13 +17559,13 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">הגדר את העדפות ה- captcha שלך מ- </t>
+    <t xml:space="preserve">הגדר את העדפות ה-captcha שלך מ </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>הוסף / ערוך שדות בטופס באמצעות השדות המותאמים אישית</t>
+    <t>הוסף/ערוך שדות של הטופס באמצעות השדות המותאמים אישית</t>
   </si>
   <si>
     <t>Current contact form settings</t>
@@ -17583,7 +17583,7 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>מה שמו של טופס יצירת הקשר הזה?</t>
+    <t>מה שמו של טופס יצירת קשר זה?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17595,7 +17595,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>שלח נתוני טופס יצירת קשר למקלטי מותאמים אישית כאשר הם מוגשים</t>
+    <t>שלח נתוני טופס יצירת קשר למקלטים מותאמים אישית כאשר הוא נשלח</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17613,49 +17613,61 @@
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>תוכלו לשנות את הגדרות הגלובליות של טופס יצירת הקשר כאן.</t>
+    <t>אתה יכול לשנות את ההגדרות הגלובליות של טופס יצירת הקשר כאן.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>הודעת תגובה אוטומטית למשתמש</t>
+    <t>תגובה אוטומטית להודעה למשתמש</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>אפשר הודעת תגובה אוטומטית למשתמש</t>
+    <t>הפעל הודעת תגובה אוטומטית למשתמש</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>אפשר למשתמשים לקבל "הודעות דוא"ל לאחר המנוי."</t>
+    <t>אפשר למשתמשים לקבל אימייל "תודה לאחר הרשמה".</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
+    <t>נושא תגובה אוטומטי</t>
+  </si>
+  <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>מגיבים אוטומטיים מאפשרים לך להגדיר תשובות אוטומטיות לדואר אלקטרוני נכנס</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
+    <t>הודעת תגובה אוטומטית</t>
+  </si>
+  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
+    <t>תשובה אוטומטית לדואר אלקטרוני שנשלח בחזרה למשתמש</t>
+  </si>
+  <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>מגיב אוטומטית שולח מותאם אישית</t>
+    <t>תגובה אוטומטית לשולח מותאם אישית</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>השתמש בהגדרות השולח המותאמות אישית עבור טופס יצירת הקשר הנוכחי.</t>
+    <t>השתמש בהגדרות שולח מותאמות אישית עבור טופס יצירת הקשר הנוכחי.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17673,37 +17685,37 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>תשובה אוטומטית לתשובה לדואר אלקטרוני</t>
+    <t>תגובה אוטומטית למייל</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>כאשר המשתמש מקבל את הודעת התגובה האוטומטית הוא יכול להשיב לתשובה לדוא"ל.</t>
+    <t>כאשר המשתמש מקבל את הודעת התגובה האוטומטית הוא יכול להגיב בחזרה כדי להשיב לדוא"ל.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>מגיב אוטומטית קבצים מצורפים לדואר אלקטרוני</t>
+    <t>תגובה אוטומטית לקבצים מצורפים לדואר אלקטרוני</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>אם ברצונך לצרף תמונות, עליך להעלות אותן לגלריה מ'הוסף מדיה '</t>
+    <t>אם ברצונך לצרף תמונות og, עליך להעלות אותן לגלריה מתוך 'הוסף מדיה'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>עדיין אין לך הודעות</t>
+    <t>עדיין אין לך פוסטים</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>צור את ההודעה הראשונה שלך ברגע זה.</t>
+    <t>צור את הפוסט הראשון שלך כבר עכשיו.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17723,12 +17735,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>כיצד לכתוב תיאורי מוצרים שמוכרים
-                                                    אחד הדברים הטובים ביותר שאתה יכול לעשות כדי להצליח בחנות שלך הוא להשקיע קצת זמן בכתיבת תיאורי מוצרים נהדרים. אתה רוצה לספק מידע מפורט אך תמציתי שימשוך לקוחות פוטנציאליים לקנות.
+    <t>איך לכתוב תיאורי מוצרים שמוכרים
+                                                    אחד הדברים הטובים ביותר שאתה יכול לעשות כדי להצליח בחנות שלך הוא להשקיע קצת זמן בכתיבת תיאורי מוצרים מעולים. אתה רוצה לספק מידע מפורט אך תמציתי שיפתה לקוחות פוטנציאליים לקנות.
                                                     תחשוב כמו צרכן
-                                                    חשוב על מה שאתה כצרכן תרצה לדעת ואז כלול את התכונות הללו בתיאור שלך. לבגדים: חומרים והתאמה. לאוכל: מרכיבים ואופן הכנתו. תבליטים הם החברים שלך כאשר אתה מפרט
+                                                    תחשוב על מה שאתה כצרכן היית רוצה לדעת, ולאחר מכן כלול את התכונות הללו בתיאור שלך. לבגדים: חומרים והתאמה. לאוכל: מרכיבים וכיצד הוכן. תבליטים הם החברים שלך כשמפרטים
                                                    תכונות - נסה
-                                                            להגביל כל אחת ל 5-8 מילים.</t>
+                                                            להגביל כל אחת ל-5-8 מילים.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17737,346 +17749,280 @@
     <t>שפת ניהול</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>הוסף דף משנה</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>הקטגוריה נמחקה</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>התוכן נמחק</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>חיפוש קטגוריות</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>צור תוכן</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>כַּרְטִיס</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>כל</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>תעודת זהות</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>ID Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>לְהַגבִּיל</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>האם אתה בטוח שברצונך למחוק?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>אין לך מוצרים בפנים</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>בחזרה ל</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>שדות מותאמים אישית נשמרים</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>שדות קיימים</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>בחר מתוך השדות הקיימים שלך למטה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הוסף שדות חדשים</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>הוסף שדה מותאם אישית חדש מהרשימה למטה</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>השדות שלך</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>רשימת השדות המותאמים אישית שהוספת</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>המניה</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>מערכת</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>בלוג</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>הפניית דפדפן</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>שילוב</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>כלי ייצוא ייבוא</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>עדכון עצמאי</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>חבילת תצוגה מקדימה</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>הַדגָמָה</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>להשתמש</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>נוֹכְחִי</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>אֶקְסְפּרֶס</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>מחלקה ראשונה</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>לחץ ואסוף</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>רקע וידאו</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>ריבוי שפות</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>אתה יכול להפעיל את מודול ריבוי שפות כדי להשתמש במספר שפות</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>מצב ריבוי שפות</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>הפעל את מצב ריבוי השפות כדי לקבל מספר שפות לתוכן שלך.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>תרגומים מיובאים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא נמצאו תרגומים במסד הנתונים. האם ברצונך לייבא תרגומים? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>העגלה שלך ריקה.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>עורך קוד</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>בלוג</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>כותרות</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>כותרות 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>כותרות 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>כותרות 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>כותרות 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>כותרות 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>כותרות 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>כותרות 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>כותרות 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>בלוק טקסט</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>בלוק טקסט 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>תכונות 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>תכונות 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>תכונות 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>תכונות 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>רשתות</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>תפריט - עור-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>תפריט - עור-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>תפריט - עור-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>תפריט - עור-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>תפריט - עור-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>כותרות תחתונות</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>כותרות תחתונות 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>כותרות תחתונות 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>כותרות תחתונות 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>כותרות תחתונות 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>ג'מבוטרון</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>ג'מבוטרון 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>תמחור 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>פריסות ברירת מחדל</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>אין כאן תוכן</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>שדות מותאמים אישית נשמרים</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>שדות קיימים</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>בחר מהשדות הקיימים שלך למטה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הוסף שדות חדשים</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>הוסף שדה מותאם אישית חדש מהרשימה למטה</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>השדות שלך</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>רשימה של השדות המותאמים אישית שהוספת</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>ייבוא חדש</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18122,492 +18068,6 @@
   </si>
   <si>
     <t>טעינה מחדש של סגנונות</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>קישורים ל</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>חבילת תצוגה מקדימה</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>הַדגָמָה</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>להשתמש</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>נוֹכְחִי</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>להזמין מחדש</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>מערכת</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>הפניית דפדפן</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>שילוב</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>עדכון עצמאי</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>אתה צריך מפתח רישיון כדי להתקין חבילה זו</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>חבילה זו היא פרימיום ואתה חייב להיות בעל מפתח רישיון כדי להתקין אותה</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>אתה צריך מפתח רישיון</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>הרישיון הופעל</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>טוען מחדש את הדף</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>הרישיון לא הופעל</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>עדכוני מערכת</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>בדוק אם קיימים עדכוני מערכת</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>בחזרה לרשימה</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>לקטגוריה חייב להיות שם</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>האם הקטגוריה מוסתרת?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>אם תגדיר זאת ל-YES קטגוריה זו תוסתרה מהאתר</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>הַזכָּרָה</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>העגלה שלך ריקה.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>נמצאו תוצאות</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>אם תבחר באחוזים בשדה הבחירה, הוא יחושב אוטומטית מהמחיר וההצעה של המוצר.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>custom.multillanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>התקדם לנקודת הביקורת</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>מציג</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>שֶׁל</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>תוצאות)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>כותרת העמוד - פירור לחם מימין</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>כותרת העמוד - פירור לחם שמאלי</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>תנאי שימוש</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>משלוח והחזרות</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>בערך 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>בערך 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>בערך 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>בית 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>בית 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>עליך ללחוץ על לחצן החל תבנית כדי לשנות את התבנית שלך</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>חפש לפי קריטריונים</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>תאריך מ</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>הגדר את ההזמנות מהתאריך</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>תאריך ל</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>הגדר את ההזמנות עד היום</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>סכום הזמנה מ</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>הצג את ההזמנה עם כמות מינימלית</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>סכום הזמנה עד</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>הצג את ההזמנה עם כמות מקסימלית</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>חפש לפי מוצרים...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>חפש לפי מוצרים</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>מצב תשלום</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>חיפוש חינם בטלפון, שם, מייל וכו'...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>שלח קריטריון זה</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>אפס מסנן</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>ייצא הכל</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>בחר מיון</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>תאריך הזמנה</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[חדש &gt; ישן]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[ישן &gt; חדש]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[גבוה &gt; נמוך]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[נמוך &gt; גבוה]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>הזמנה הושלמה</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>תרגומים מהמודול הרב-שפות נמצאו במסד הנתונים שלך.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>אַזהָרָה! שינוי שפת ברירת המחדל יכול לשבור את התרגומים באתר שלך.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>האם אתה בטוח רוצה להמשיך?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>אַזהָרָה! שפת ברירת המחדל המשתנה אולי תשבור את האתר שלך.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>ההזמנה עדיין לא הושלמה</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>עודכן ב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מבט חטוף </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>החלף ערכי שפה</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>תרגומים מיובאים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא נמצאו תרגומים במסד הנתונים. האם ברצונך לייבא תרגומים? </t>
   </si>
 </sst>
 </file>
@@ -18943,7 +18403,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70744,7 +70204,7 @@
         <v>5871</v>
       </c>
       <c r="D3047" t="s">
-        <v>1981</v>
+        <v>5872</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70758,10 +70218,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="D3048" t="s">
-        <v>3147</v>
+        <v>5874</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70775,10 +70235,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5873</v>
+        <v>5875</v>
       </c>
       <c r="D3049" t="s">
-        <v>3141</v>
+        <v>5876</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70792,10 +70252,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="D3050" t="s">
-        <v>1774</v>
+        <v>5878</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70809,10 +70269,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5875</v>
+        <v>5879</v>
       </c>
       <c r="D3051" t="s">
-        <v>5876</v>
+        <v>5880</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70826,10 +70286,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5877</v>
+        <v>5881</v>
       </c>
       <c r="D3052" t="s">
-        <v>5878</v>
+        <v>5882</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70843,10 +70303,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5879</v>
+        <v>5883</v>
       </c>
       <c r="D3053" t="s">
-        <v>5880</v>
+        <v>5884</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70860,10 +70320,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5881</v>
+        <v>5885</v>
       </c>
       <c r="D3054" t="s">
-        <v>5882</v>
+        <v>5886</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70877,10 +70337,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5883</v>
+        <v>5887</v>
       </c>
       <c r="D3055" t="s">
-        <v>5884</v>
+        <v>5888</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70894,10 +70354,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5885</v>
+        <v>5889</v>
       </c>
       <c r="D3056" t="s">
-        <v>5886</v>
+        <v>5890</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70911,10 +70371,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5887</v>
+        <v>5891</v>
       </c>
       <c r="D3057" t="s">
-        <v>5888</v>
+        <v>5892</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70928,10 +70388,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5889</v>
+        <v>5893</v>
       </c>
       <c r="D3058" t="s">
-        <v>5890</v>
+        <v>5894</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70945,10 +70405,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5891</v>
+        <v>5895</v>
       </c>
       <c r="D3059" t="s">
-        <v>5892</v>
+        <v>5896</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70962,10 +70422,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5893</v>
+        <v>5897</v>
       </c>
       <c r="D3060" t="s">
-        <v>5894</v>
+        <v>5898</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70979,10 +70439,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5895</v>
+        <v>5899</v>
       </c>
       <c r="D3061" t="s">
-        <v>5896</v>
+        <v>5900</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70993,13 +70453,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5897</v>
+        <v>5901</v>
       </c>
       <c r="C3062" t="s">
-        <v>5898</v>
+        <v>5902</v>
       </c>
       <c r="D3062" t="s">
-        <v>5899</v>
+        <v>5903</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71013,10 +70473,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5900</v>
+        <v>5904</v>
       </c>
       <c r="D3063" t="s">
-        <v>5901</v>
+        <v>5905</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71030,10 +70490,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5902</v>
+        <v>5906</v>
       </c>
       <c r="D3064" t="s">
-        <v>5903</v>
+        <v>4276</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71047,10 +70507,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5904</v>
+        <v>5907</v>
       </c>
       <c r="D3065" t="s">
-        <v>5905</v>
+        <v>5908</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71064,10 +70524,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5906</v>
+        <v>5909</v>
       </c>
       <c r="D3066" t="s">
-        <v>5907</v>
+        <v>5910</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71081,10 +70541,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5908</v>
+        <v>5911</v>
       </c>
       <c r="D3067" t="s">
-        <v>5909</v>
+        <v>5912</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71098,10 +70558,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5910</v>
+        <v>5913</v>
       </c>
       <c r="D3068" t="s">
-        <v>5911</v>
+        <v>5914</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71115,10 +70575,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5912</v>
+        <v>5915</v>
       </c>
       <c r="D3069" t="s">
-        <v>5913</v>
+        <v>5916</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71132,10 +70592,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5914</v>
+        <v>5917</v>
       </c>
       <c r="D3070" t="s">
-        <v>5915</v>
+        <v>5918</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71149,10 +70609,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5916</v>
+        <v>5919</v>
       </c>
       <c r="D3071" t="s">
-        <v>5917</v>
+        <v>5920</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71166,10 +70626,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5918</v>
+        <v>5921</v>
       </c>
       <c r="D3072" t="s">
-        <v>5919</v>
+        <v>5922</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71183,10 +70643,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5920</v>
+        <v>5923</v>
       </c>
       <c r="D3073" t="s">
-        <v>5921</v>
+        <v>5924</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71200,10 +70660,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5922</v>
+        <v>5925</v>
       </c>
       <c r="D3074" t="s">
-        <v>5923</v>
+        <v>5926</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71217,10 +70677,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5924</v>
+        <v>5927</v>
       </c>
       <c r="D3075" t="s">
-        <v>5925</v>
+        <v>5928</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71234,10 +70694,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5926</v>
+        <v>5929</v>
       </c>
       <c r="D3076" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71251,10 +70711,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
       <c r="D3077" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71268,10 +70728,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
       <c r="D3078" t="s">
-        <v>5931</v>
+        <v>2158</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71285,10 +70745,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5932</v>
+        <v>5934</v>
       </c>
       <c r="D3079" t="s">
-        <v>5933</v>
+        <v>5935</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71302,10 +70762,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5934</v>
+        <v>5936</v>
       </c>
       <c r="D3080" t="s">
-        <v>5935</v>
+        <v>5937</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71319,10 +70779,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5936</v>
+        <v>5938</v>
       </c>
       <c r="D3081" t="s">
-        <v>5937</v>
+        <v>5939</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71336,10 +70796,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5938</v>
+        <v>5940</v>
       </c>
       <c r="D3082" t="s">
-        <v>5939</v>
+        <v>5941</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71353,10 +70813,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5940</v>
+        <v>5942</v>
       </c>
       <c r="D3083" t="s">
-        <v>5941</v>
+        <v>5943</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71370,10 +70830,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5942</v>
+        <v>5944</v>
       </c>
       <c r="D3084" t="s">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71387,10 +70847,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5944</v>
+        <v>5946</v>
       </c>
       <c r="D3085" t="s">
-        <v>5945</v>
+        <v>5947</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71404,10 +70864,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5946</v>
+        <v>5948</v>
       </c>
       <c r="D3086" t="s">
-        <v>5947</v>
+        <v>5949</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71421,10 +70881,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5948</v>
+        <v>5950</v>
       </c>
       <c r="D3087" t="s">
-        <v>5949</v>
+        <v>5951</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71438,10 +70898,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5950</v>
+        <v>5952</v>
       </c>
       <c r="D3088" t="s">
-        <v>5951</v>
+        <v>5953</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71455,10 +70915,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5952</v>
+        <v>5954</v>
       </c>
       <c r="D3089" t="s">
-        <v>5953</v>
+        <v>5955</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71472,10 +70932,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5954</v>
+        <v>5956</v>
       </c>
       <c r="D3090" t="s">
-        <v>5955</v>
+        <v>5957</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71489,10 +70949,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5956</v>
+        <v>5958</v>
       </c>
       <c r="D3091" t="s">
-        <v>5957</v>
+        <v>5959</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71506,10 +70966,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5958</v>
+        <v>5960</v>
       </c>
       <c r="D3092" t="s">
-        <v>1929</v>
+        <v>5961</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71523,10 +70983,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5959</v>
+        <v>5962</v>
       </c>
       <c r="D3093" t="s">
-        <v>5960</v>
+        <v>5963</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71540,10 +71000,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5961</v>
+        <v>5964</v>
       </c>
       <c r="D3094" t="s">
-        <v>5962</v>
+        <v>5965</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71557,10 +71017,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5963</v>
+        <v>5966</v>
       </c>
       <c r="D3095" t="s">
-        <v>5964</v>
+        <v>5967</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71574,10 +71034,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5965</v>
+        <v>5968</v>
       </c>
       <c r="D3096" t="s">
-        <v>5966</v>
+        <v>5969</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71591,10 +71051,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5967</v>
+        <v>5970</v>
       </c>
       <c r="D3097" t="s">
-        <v>5968</v>
+        <v>5971</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71608,10 +71068,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5969</v>
+        <v>5972</v>
       </c>
       <c r="D3098" t="s">
-        <v>2231</v>
+        <v>5973</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71625,10 +71085,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5970</v>
+        <v>5974</v>
       </c>
       <c r="D3099" t="s">
-        <v>5971</v>
+        <v>5975</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71642,10 +71102,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5972</v>
+        <v>5976</v>
       </c>
       <c r="D3100" t="s">
-        <v>5973</v>
+        <v>5977</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71659,10 +71119,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5974</v>
+        <v>5978</v>
       </c>
       <c r="D3101" t="s">
-        <v>5975</v>
+        <v>5979</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71676,10 +71136,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5976</v>
+        <v>5980</v>
       </c>
       <c r="D3102" t="s">
-        <v>5977</v>
+        <v>5981</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71693,10 +71153,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5978</v>
+        <v>5982</v>
       </c>
       <c r="D3103" t="s">
-        <v>5979</v>
+        <v>5983</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71710,10 +71170,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5980</v>
+        <v>5984</v>
       </c>
       <c r="D3104" t="s">
-        <v>5981</v>
+        <v>5985</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71727,10 +71187,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5982</v>
+        <v>5986</v>
       </c>
       <c r="D3105" t="s">
-        <v>5983</v>
+        <v>5987</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71744,10 +71204,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5984</v>
+        <v>5988</v>
       </c>
       <c r="D3106" t="s">
-        <v>5985</v>
+        <v>5989</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71761,10 +71221,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5986</v>
+        <v>5990</v>
       </c>
       <c r="D3107" t="s">
-        <v>5987</v>
+        <v>5991</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71778,10 +71238,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5988</v>
+        <v>5992</v>
       </c>
       <c r="D3108" t="s">
-        <v>5989</v>
+        <v>5993</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71794,11 +71254,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1298</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71811,11 +71271,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5995</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71829,10 +71289,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5991</v>
+        <v>5996</v>
       </c>
       <c r="D3111" t="s">
-        <v>5992</v>
+        <v>5997</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71846,10 +71306,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5993</v>
+        <v>5998</v>
       </c>
       <c r="D3112" t="s">
-        <v>5994</v>
+        <v>5999</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71863,10 +71323,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5995</v>
+        <v>6000</v>
       </c>
       <c r="D3113" t="s">
-        <v>2694</v>
+        <v>6001</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71880,10 +71340,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5996</v>
+        <v>6002</v>
       </c>
       <c r="D3114" t="s">
-        <v>5997</v>
+        <v>3929</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71897,10 +71357,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5998</v>
+        <v>6003</v>
       </c>
       <c r="D3115" t="s">
-        <v>5999</v>
+        <v>6004</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71914,10 +71374,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6000</v>
+        <v>6005</v>
       </c>
       <c r="D3116" t="s">
-        <v>6001</v>
+        <v>6006</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71931,10 +71391,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6002</v>
+        <v>6007</v>
       </c>
       <c r="D3117" t="s">
-        <v>6003</v>
+        <v>6008</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71948,10 +71408,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6004</v>
+        <v>6009</v>
       </c>
       <c r="D3118" t="s">
-        <v>6005</v>
+        <v>6010</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71965,1678 +71425,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6006</v>
+        <v>6011</v>
       </c>
       <c r="D3119" t="s">
-        <v>6007</v>
+        <v>6012</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>3929</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6076</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5897</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6086</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6086</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4368</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6182</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2953</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
